--- a/doc/上线规划.xlsx
+++ b/doc/上线规划.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="TODO LIST" sheetId="3" r:id="rId1"/>
+    <sheet name="上线计划" sheetId="1" r:id="rId2"/>
+    <sheet name="团队" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TODO LIST'!$A$1:$H$38</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>上线内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +292,44 @@
   <si>
     <t>后端</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
 </sst>
 </file>
@@ -324,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -332,11 +374,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -348,6 +405,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -630,10 +697,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="69.25" customWidth="1"/>
+    <col min="5" max="5" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8">
+        <v>42919</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"基础,业务,共通"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
+      <formula1>"超高,高,中,低"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -914,12 +1490,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/上线规划.xlsx
+++ b/doc/上线规划.xlsx
@@ -8,11 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="TODO LIST" sheetId="3" r:id="rId1"/>
-    <sheet name="上线计划" sheetId="1" r:id="rId2"/>
-    <sheet name="团队" sheetId="2" r:id="rId3"/>
+    <sheet name="备注" sheetId="4" r:id="rId2"/>
+    <sheet name="上线计划" sheetId="1" r:id="rId3"/>
+    <sheet name="团队" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TODO LIST'!$A$1:$H$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TODO LIST'!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="101">
   <si>
     <t>上线内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,13 +331,131 @@
   </si>
   <si>
     <t>高</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单不改，其他修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面排版不好看，显示不多；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货品订货里面不需要快递公司吧，收货人、地址、手机可以放在中间吗，放三列，否则处理订单，还要往下翻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>货品订货处理开单不能返回上个页面，并光标停留在处理的这张订单上；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售收款列表页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店管理没有导出功能，列表里面不需要显示乡镇类型、面积、物料价格体系之类的，要显示市场保证金、形象押金、联系人、手机及看出是否已同步金蝶。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/7/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 货品订货里面的添加都用不了，加不了型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下的订单在货品订货里面看不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 没有串码批量上报的功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">广告印刷编辑 
+ 附件可以上传excel、word等文件
+ 增加一个门店选项
+ 备注增加一个说明：对稿人、联系方式
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物料</t>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">一、POP征订
+POP列表
+门店要模糊搜索
+POP开单
+物料编码不能模糊搜索
+POP分货，要显示物料编码（只显示了物料名称）
+二、柜台订货
+办事处、门店、创建人，要模糊过滤
+柜台添加
+显示了全部的物料（不允许订货的物料都显示了）
+输入财务门店后不会带出直营门店
+输入财务门店后不会带出地区代理门店
+柜台开单
+主页面要增加无押金的过滤选项
+发货后快递单号不能修改
+柜台订货报表
+柜台订货打印
+打印格式要微调整
+三、仓库管理，过滤的字段太少！修改，无是否广告门店的选项，分组填什么？无法确认门店在K3系统是否存在
+四、门店管理，过滤后会弹回至初始界面，分组填什么？无法确认门店在K3系统是否存在
+五、机构管理呢？
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +469,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -393,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -407,15 +533,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,6 +561,259 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{228A5327-4AEC-4A6D-A7B7-087A3245A5F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542926" y="0"/>
+          <a:ext cx="4829174" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>521335</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739014D5-F683-48F7-9F14-E24385BE510F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="4086225"/>
+          <a:ext cx="5274310" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>473710</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>29210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C228AC55-BDA1-4B64-8546-B442BFFE3D37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="7058025"/>
+          <a:ext cx="5274310" cy="934085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274751</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="C:\Users\zhangyf\Documents\Tencent Files\1054684157\Image\C2C\$Y_LJ95P}2@W@0G$DV7TS6X.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77404B22-0FD0-4736-A033-10A7644F4A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="8162925"/>
+          <a:ext cx="5742101" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\KSDZ\AppData\Roaming\Tencent\Users\694245008\QQ\WinTemp\RichOle\7}HU`3T4~3YC@CG_M(%INCT.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27ADA1D7-A139-416E-A3FC-A7DBF5EB838C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="12125325"/>
+          <a:ext cx="8229600" cy="3343275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,506 +1079,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="69.25" customWidth="1"/>
-    <col min="5" max="5" width="17.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="69.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="8">
-        <v>42919</v>
-      </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="D2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="B3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="B4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="B5" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="B6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
+      <c r="B7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
+      <c r="B9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
+      <c r="B10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="150.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5">
+      <c r="B11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B9">
       <formula1>"基础,业务,共通"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
       <formula1>"超高,高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4 B10:B11">
+      <formula1>"基础,业务,物料,工厂,共通"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,6 +1698,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H91" sqref="H91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -1490,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
